--- a/biology/Biologie cellulaire et moléculaire/Homomère/Homomère.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Homomère/Homomère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homom%C3%A8re</t>
+          <t>Homomère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homomère ou homo-oligomère est une substance constituée d'un nombre quelconque de produits identiques (molécules ou radicaux).
 Par exemple le glutathion est un peptide homomère (ou homomérique) car il est fait d'un seul type d'acide aminé (radical alanyl) répété : alanylalanylalanine pu ALA-ALA-ALA.
